--- a/PROGRESS/Unit1CA.xlsx
+++ b/PROGRESS/Unit1CA.xlsx
@@ -16,14 +16,40 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'coding WBS'!$B$2:$I$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Progress_20150315!$B$2:$H$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Progress_20150315!$B$2:$H$34</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="H2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t>60 - implement entity &amp; Mgr
+70 - implement Dao
+85 - finish Unit Test
+100 - finish peer review</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="133">
   <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>System Init</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>System shutdown</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -546,6 +568,18 @@
   </si>
   <si>
     <t>ProductListScreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OtherExceptions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System Initiate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +590,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,6 +618,12 @@
     <font>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="81"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -686,7 +726,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -799,11 +839,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -850,7 +901,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -862,17 +912,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -887,14 +949,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>714375</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -904,7 +966,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11791950" y="76200"/>
+          <a:off x="12087225" y="76200"/>
           <a:ext cx="19050" cy="8829675"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2528,13 +2590,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1819275</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2583,13 +2645,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1819275</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2600,61 +2662,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13201650" y="7458075"/>
-          <a:ext cx="1819275" cy="95251"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1819275</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="流程图: 过程 40"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15030450" y="7696200"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2704,12 +2711,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="流程图: 过程 41"/>
+        <xdr:cNvPr id="41" name="流程图: 过程 40"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15030450" y="7934325"/>
+          <a:off x="15030450" y="7696200"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2759,12 +2766,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="流程图: 过程 42"/>
+        <xdr:cNvPr id="42" name="流程图: 过程 41"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15030450" y="8172450"/>
+          <a:off x="15030450" y="7934325"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2810,6 +2817,61 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>1819275</xdr:colOff>
       <xdr:row>36</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="流程图: 过程 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15030450" y="8172450"/>
+          <a:ext cx="1819275" cy="95251"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1819275</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2913,13 +2975,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1790700</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2968,13 +3030,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3003,6 +3065,61 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1819275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="流程图: 过程 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13201650" y="6981825"/>
+          <a:ext cx="1819275" cy="95251"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -4900,11 +5017,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K37"/>
+  <dimension ref="B1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4915,8 +5032,8 @@
     <col min="4" max="4" width="18.75" style="6" customWidth="1"/>
     <col min="5" max="5" width="16" style="6" customWidth="1"/>
     <col min="6" max="6" width="14" style="18" customWidth="1"/>
-    <col min="7" max="7" width="47.125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="47.125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="41" customWidth="1"/>
     <col min="9" max="10" width="24" style="6" customWidth="1"/>
     <col min="11" max="11" width="24.75" style="6" customWidth="1"/>
     <col min="12" max="16384" width="9" style="6"/>
@@ -4925,55 +5042,55 @@
     <row r="1" spans="2:11" ht="6" customHeight="1"/>
     <row r="2" spans="2:11">
       <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="K2" s="30" t="s">
         <v>122</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="9">
-        <f t="shared" ref="B3:B37" si="0">ROW()-2</f>
+        <f t="shared" ref="B3:B38" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="15">
         <v>42083</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H3" s="42"/>
     </row>
@@ -4983,13 +5100,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="15">
         <v>42083</v>
@@ -5006,16 +5123,16 @@
         <v>5</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F5" s="15">
         <v>42083</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H5" s="42"/>
     </row>
@@ -5025,13 +5142,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" s="15">
         <v>42083</v>
@@ -5045,19 +5162,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>89</v>
+        <v>36</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="F7" s="15">
         <v>42083</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H7" s="42"/>
     </row>
@@ -5067,19 +5184,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>89</v>
+        <v>36</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="F8" s="15">
         <v>42083</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H8" s="42"/>
     </row>
@@ -5089,19 +5206,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>116</v>
+        <v>36</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>115</v>
       </c>
       <c r="F9" s="15">
         <v>42083</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H9" s="42"/>
     </row>
@@ -5111,10 +5228,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>29</v>
@@ -5123,7 +5240,7 @@
         <v>42083</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H10" s="42"/>
     </row>
@@ -5133,10 +5250,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>29</v>
@@ -5145,7 +5262,7 @@
         <v>42083</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="42"/>
     </row>
@@ -5155,19 +5272,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>116</v>
+        <v>73</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>115</v>
       </c>
       <c r="F12" s="15">
         <v>42083</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H12" s="42"/>
     </row>
@@ -5177,19 +5294,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F13" s="15">
         <v>42083</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13" s="42"/>
     </row>
@@ -5199,19 +5316,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" s="15">
         <v>42083</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H14" s="42"/>
     </row>
@@ -5221,19 +5338,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15" s="15">
         <v>42083</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H15" s="42"/>
     </row>
@@ -5243,42 +5360,46 @@
         <v>14</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>88</v>
+        <v>36</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>87</v>
       </c>
       <c r="F16" s="15">
         <v>42083</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
+        <v>102</v>
+      </c>
+      <c r="H16" s="42">
+        <v>20</v>
+      </c>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="35">
+      <c r="B17" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="43"/>
+      <c r="C17" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="43">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="3">
@@ -5286,13 +5407,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="17">
         <v>42090</v>
@@ -5306,13 +5427,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="17">
         <v>42090</v>
@@ -5326,19 +5447,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="17">
         <v>42090</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H20" s="44"/>
     </row>
@@ -5348,19 +5469,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F21" s="17">
         <v>42090</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H21" s="44"/>
     </row>
@@ -5370,19 +5491,19 @@
         <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F22" s="17">
         <v>42090</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H22" s="44"/>
     </row>
@@ -5392,19 +5513,19 @@
         <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F23" s="17">
         <v>42090</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="44"/>
     </row>
@@ -5414,19 +5535,19 @@
         <v>22</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>116</v>
+        <v>74</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>115</v>
       </c>
       <c r="F24" s="17">
         <v>42090</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H24" s="44"/>
     </row>
@@ -5436,19 +5557,19 @@
         <v>23</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F25" s="17">
         <v>42090</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="44"/>
     </row>
@@ -5458,10 +5579,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>29</v>
@@ -5470,7 +5591,7 @@
         <v>42090</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H26" s="44"/>
     </row>
@@ -5480,10 +5601,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>29</v>
@@ -5492,7 +5613,7 @@
         <v>42090</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="44"/>
     </row>
@@ -5502,10 +5623,10 @@
         <v>26</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>29</v>
@@ -5514,7 +5635,7 @@
         <v>42090</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="44"/>
     </row>
@@ -5524,19 +5645,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" s="17">
         <v>42090</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H29" s="44"/>
     </row>
@@ -5546,19 +5667,19 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F30" s="17">
         <v>42090</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H30" s="44"/>
     </row>
@@ -5568,19 +5689,21 @@
         <v>29</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>88</v>
+        <v>60</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="F31" s="17">
         <v>42090</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="44"/>
+      <c r="H31" s="44">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="3">
@@ -5588,13 +5711,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>120</v>
+        <v>60</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="F32" s="17">
         <v>42090</v>
@@ -5608,95 +5731,124 @@
         <v>31</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F33" s="17">
         <v>42090</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="44"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="34">
+      <c r="B34" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33">
-        <v>42098</v>
-      </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="45"/>
+      <c r="C34" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="17">
+        <v>42090</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="34">
+      <c r="B35" s="33">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33">
+      <c r="C35" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="32">
         <v>42098</v>
       </c>
-      <c r="G35" s="32"/>
+      <c r="G35" s="31"/>
       <c r="H35" s="45"/>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="34">
+      <c r="B36" s="33">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33">
+      <c r="C36" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="32">
         <v>42098</v>
       </c>
-      <c r="G36" s="32"/>
+      <c r="G36" s="31"/>
       <c r="H36" s="45"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="34">
+      <c r="B37" s="33">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33">
+      <c r="C37" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="32">
         <v>42098</v>
       </c>
-      <c r="G37" s="32"/>
+      <c r="G37" s="31"/>
       <c r="H37" s="45"/>
     </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="33">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="32">
+        <v>42098</v>
+      </c>
+      <c r="G38" s="31"/>
+      <c r="H38" s="45"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:H33">
+  <autoFilter ref="B2:H34">
     <filterColumn colId="5"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5721,7 +5873,7 @@
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5769,7 +5921,7 @@
     </row>
     <row r="7" spans="2:10" ht="18.75">
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>15</v>
@@ -5795,7 +5947,7 @@
     </row>
     <row r="8" spans="2:10" ht="18.75">
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
@@ -6058,10 +6210,10 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -6073,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -6081,7 +6233,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -6127,25 +6279,25 @@
     <row r="1" spans="2:9" ht="11.25" customHeight="1"/>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -6154,21 +6306,21 @@
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -6177,19 +6329,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="10"/>
       <c r="I4" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -6202,17 +6354,17 @@
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -6221,19 +6373,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="10"/>
       <c r="I6" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -6242,21 +6394,21 @@
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -6265,21 +6417,21 @@
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -6288,21 +6440,21 @@
         <v>7</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -6311,21 +6463,21 @@
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -6334,21 +6486,21 @@
         <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -6357,21 +6509,21 @@
         <v>10</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -6380,21 +6532,21 @@
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -6403,21 +6555,21 @@
         <v>12</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -6426,21 +6578,21 @@
         <v>13</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -6449,21 +6601,21 @@
         <v>14</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -6472,19 +6624,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="12"/>
       <c r="I17" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -6493,19 +6645,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="7"/>
       <c r="I18" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -6514,19 +6666,19 @@
         <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="7"/>
       <c r="I19" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -6535,21 +6687,21 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -6558,21 +6710,21 @@
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -6581,21 +6733,21 @@
         <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -6604,21 +6756,21 @@
         <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -6627,21 +6779,21 @@
         <v>22</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -6650,21 +6802,21 @@
         <v>23</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -6673,21 +6825,21 @@
         <v>24</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="28" t="s">
         <v>29</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -6696,21 +6848,21 @@
         <v>25</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" s="28" t="s">
         <v>29</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -6719,21 +6871,21 @@
         <v>26</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" s="28" t="s">
         <v>29</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -6742,21 +6894,21 @@
         <v>27</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -6765,21 +6917,21 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -6788,19 +6940,19 @@
         <v>29</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="7"/>
       <c r="I31" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -6809,19 +6961,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="7"/>
       <c r="I32" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -6830,19 +6982,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="7"/>
       <c r="I33" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -6877,33 +7029,33 @@
   <sheetData>
     <row r="3" spans="2:10">
       <c r="B3" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -6911,7 +7063,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="24">
         <v>42078</v>
@@ -6920,18 +7072,18 @@
         <v>42094</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="24">
         <v>42077</v>
@@ -6940,71 +7092,71 @@
         <v>42092</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -7014,7 +7166,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" s="24">
         <v>42079</v>
@@ -7025,7 +7177,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="24">
         <v>42086</v>
@@ -7036,7 +7188,7 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="24">
         <v>42093</v>
@@ -7047,7 +7199,7 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" s="24">
         <v>42098</v>

--- a/PROGRESS/Unit1CA.xlsx
+++ b/PROGRESS/Unit1CA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -16,9 +16,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'coding WBS'!$B$2:$I$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Progress_20150315!$B$2:$H$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Progress_20150315!$B$2:$H$35</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="139">
   <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -567,10 +567,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProductListScreen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OtherExceptions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -581,16 +577,37 @@
   <si>
     <t>System Initiate</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainFrame</t>
+  </si>
+  <si>
+    <t>Xie Jiabao</t>
+  </si>
+  <si>
+    <t>CheckOutPanel</t>
+  </si>
+  <si>
+    <t>MemberListPanel</t>
+  </si>
+  <si>
+    <t>ProductListPanel</t>
+  </si>
+  <si>
+    <t>CategoryListPanel</t>
+  </si>
+  <si>
+    <t>ReportPanel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -883,13 +900,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -903,7 +920,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -911,10 +928,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -941,6 +958,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -956,7 +978,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1820,61 +1842,6 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1819275</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="流程图: 过程 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13201650" y="3886200"/>
-          <a:ext cx="1819275" cy="95251"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1886,12 +1853,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="流程图: 过程 25"/>
+        <xdr:cNvPr id="25" name="流程图: 过程 24"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13201650" y="4124325"/>
+          <a:off x="13201650" y="3886200"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1941,12 +1908,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="流程图: 过程 26"/>
+        <xdr:cNvPr id="26" name="流程图: 过程 25"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13201650" y="4362450"/>
+          <a:off x="13201650" y="4124325"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1996,12 +1963,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="流程图: 过程 27"/>
+        <xdr:cNvPr id="27" name="流程图: 过程 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13201650" y="4600575"/>
+          <a:off x="13201650" y="4362450"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2051,12 +2018,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="流程图: 过程 28"/>
+        <xdr:cNvPr id="28" name="流程图: 过程 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13201650" y="4838700"/>
+          <a:off x="13201650" y="4600575"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2106,12 +2073,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="流程图: 过程 29"/>
+        <xdr:cNvPr id="29" name="流程图: 过程 28"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13201650" y="5076825"/>
+          <a:off x="13201650" y="4838700"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2161,12 +2128,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="流程图: 过程 30"/>
+        <xdr:cNvPr id="30" name="流程图: 过程 29"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13201650" y="5314950"/>
+          <a:off x="13201650" y="5076825"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2216,12 +2183,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="流程图: 过程 31"/>
+        <xdr:cNvPr id="31" name="流程图: 过程 30"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13201650" y="5553075"/>
+          <a:off x="13201650" y="5314950"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2271,12 +2238,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="流程图: 过程 32"/>
+        <xdr:cNvPr id="32" name="流程图: 过程 31"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13201650" y="5791200"/>
+          <a:off x="13201650" y="5553075"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2326,12 +2293,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="流程图: 过程 33"/>
+        <xdr:cNvPr id="33" name="流程图: 过程 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13201650" y="6029325"/>
+          <a:off x="13201650" y="5791200"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2381,12 +2348,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="流程图: 过程 34"/>
+        <xdr:cNvPr id="34" name="流程图: 过程 33"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13201650" y="6267450"/>
+          <a:off x="13201650" y="6029325"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2436,12 +2403,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="流程图: 过程 35"/>
+        <xdr:cNvPr id="35" name="流程图: 过程 34"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13201650" y="6505575"/>
+          <a:off x="13201650" y="6267450"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2491,12 +2458,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="流程图: 过程 36"/>
+        <xdr:cNvPr id="36" name="流程图: 过程 35"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13201650" y="6743700"/>
+          <a:off x="13201650" y="6505575"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2546,12 +2513,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="流程图: 过程 37"/>
+        <xdr:cNvPr id="37" name="流程图: 过程 36"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13201650" y="6981825"/>
+          <a:off x="13201650" y="6743700"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2590,23 +2557,23 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1819275</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="流程图: 过程 38"/>
+        <xdr:cNvPr id="38" name="流程图: 过程 37"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13201650" y="7219950"/>
+          <a:off x="13201650" y="6981825"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2656,12 +2623,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="流程图: 过程 39"/>
+        <xdr:cNvPr id="39" name="流程图: 过程 38"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13201650" y="7458075"/>
+          <a:off x="13201650" y="7219950"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2698,25 +2665,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1819275</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="流程图: 过程 40"/>
+        <xdr:cNvPr id="40" name="流程图: 过程 39"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15030450" y="7696200"/>
+          <a:off x="13201650" y="7458075"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2766,12 +2733,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="流程图: 过程 41"/>
+        <xdr:cNvPr id="41" name="流程图: 过程 40"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15030450" y="7934325"/>
+          <a:off x="15030450" y="7696200"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2821,12 +2788,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="流程图: 过程 42"/>
+        <xdr:cNvPr id="42" name="流程图: 过程 41"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15030450" y="8172450"/>
+          <a:off x="15030450" y="7934325"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2872,6 +2839,61 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>1819275</xdr:colOff>
       <xdr:row>37</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="流程图: 过程 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15030450" y="8172450"/>
+          <a:ext cx="1819275" cy="95251"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1819275</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2975,13 +2997,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1790700</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3030,13 +3052,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3085,13 +3107,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1819275</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3102,6 +3124,61 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13201650" y="6981825"/>
+          <a:ext cx="1819275" cy="95251"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1819275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="流程图: 过程 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13201650" y="4124325"/>
           <a:ext cx="1819275" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -5016,15 +5093,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.875" style="6" customWidth="1"/>
     <col min="2" max="2" width="6.25" style="8" customWidth="1"/>
@@ -5039,8 +5116,8 @@
     <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="6" customHeight="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -5072,9 +5149,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="9">
-        <f t="shared" ref="B3:B38" si="0">ROW()-2</f>
+        <f t="shared" ref="B3:B39" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -5094,7 +5171,7 @@
       </c>
       <c r="H3" s="42"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5114,7 +5191,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="42"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5136,7 +5213,7 @@
       </c>
       <c r="H5" s="42"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5156,7 +5233,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="42"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5178,7 +5255,7 @@
       </c>
       <c r="H7" s="42"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5200,7 +5277,7 @@
       </c>
       <c r="H8" s="42"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5222,7 +5299,7 @@
       </c>
       <c r="H9" s="42"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5244,7 +5321,7 @@
       </c>
       <c r="H10" s="42"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5266,7 +5343,7 @@
       </c>
       <c r="H11" s="42"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5288,7 +5365,7 @@
       </c>
       <c r="H12" s="42"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5310,7 +5387,7 @@
       </c>
       <c r="H13" s="42"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5332,7 +5409,7 @@
       </c>
       <c r="H14" s="42"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5354,7 +5431,7 @@
       </c>
       <c r="H15" s="42"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5381,7 +5458,7 @@
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5401,19 +5478,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="F18" s="17">
         <v>42090</v>
@@ -5421,13 +5498,13 @@
       <c r="G18" s="7"/>
       <c r="H18" s="44"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>53</v>
@@ -5441,82 +5518,80 @@
       <c r="G19" s="7"/>
       <c r="H19" s="44"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F20" s="17">
         <v>42090</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="G20" s="7"/>
       <c r="H20" s="44"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="29" t="s">
-        <v>115</v>
+      <c r="E21" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="F21" s="17">
         <v>42090</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H21" s="44"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>117</v>
+        <v>53</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="F22" s="17">
         <v>42090</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H22" s="44"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>117</v>
@@ -5525,86 +5600,86 @@
         <v>42090</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H23" s="44"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F24" s="17">
         <v>42090</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H24" s="44"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="28" t="s">
         <v>115</v>
       </c>
       <c r="F25" s="17">
         <v>42090</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H25" s="44"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>29</v>
+        <v>53</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="F26" s="17">
         <v>42090</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H26" s="44"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>29</v>
@@ -5613,17 +5688,17 @@
         <v>42090</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H27" s="44"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>53</v>
@@ -5639,105 +5714,107 @@
       </c>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="F29" s="17">
         <v>42090</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="F30" s="17">
         <v>42090</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="H30" s="44"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="F31" s="17">
         <v>42090</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="44">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
+      <c r="G31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="44"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="28" t="s">
         <v>87</v>
       </c>
       <c r="F32" s="17">
         <v>42090</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="44"/>
-    </row>
-    <row r="33" spans="2:11">
+      <c r="H32" s="44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="28" t="s">
-        <v>119</v>
+      <c r="E33" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="F33" s="17">
         <v>42090</v>
@@ -5745,13 +5822,13 @@
       <c r="G33" s="7"/>
       <c r="H33" s="44"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>60</v>
@@ -5764,39 +5841,41 @@
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="44"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="33">
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="31"/>
+      <c r="C35" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="E35" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="F35" s="32">
-        <v>42098</v>
-      </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="45"/>
-    </row>
-    <row r="36" spans="2:11">
+        <v>119</v>
+      </c>
+      <c r="F35" s="17">
+        <v>42090</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="33">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F36" s="32">
         <v>42098</v>
@@ -5804,17 +5883,17 @@
       <c r="G36" s="31"/>
       <c r="H36" s="45"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="33">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F37" s="32">
         <v>42098</v>
@@ -5822,17 +5901,17 @@
       <c r="G37" s="31"/>
       <c r="H37" s="45"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="33">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="28" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="F38" s="32">
         <v>42098</v>
@@ -5840,10 +5919,26 @@
       <c r="G38" s="31"/>
       <c r="H38" s="45"/>
     </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="33">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="32">
+        <v>42098</v>
+      </c>
+      <c r="G39" s="31"/>
+      <c r="H39" s="45"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:H34">
-    <filterColumn colId="5"/>
-  </autoFilter>
+  <autoFilter ref="B2:H35"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5853,14 +5948,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5869,14 +5964,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
@@ -5888,12 +5983,12 @@
     <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="18.75">
+    <row r="6" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
@@ -5919,9 +6014,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="18.75">
+    <row r="7" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>15</v>
@@ -5945,7 +6040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="18.75">
+    <row r="8" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
@@ -5971,7 +6066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="18.75">
+    <row r="9" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
@@ -5985,7 +6080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="18.75">
+    <row r="10" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
@@ -6005,7 +6100,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" ht="18.75">
+    <row r="11" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
@@ -6019,7 +6114,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="2:10" ht="18.75">
+    <row r="12" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
@@ -6035,7 +6130,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:10" ht="18.75">
+    <row r="13" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -6049,7 +6144,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:10" ht="18.75">
+    <row r="14" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -6065,7 +6160,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" ht="18.75">
+    <row r="15" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -6081,7 +6176,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="2:10" ht="18.75">
+    <row r="16" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -6093,7 +6188,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="3:10" ht="18.75">
+    <row r="17" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
@@ -6107,7 +6202,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="3:10" ht="18.75">
+    <row r="18" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
@@ -6123,7 +6218,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="3:10" ht="18.75">
+    <row r="19" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
@@ -6141,7 +6236,7 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="3:10" ht="18.75">
+    <row r="20" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
@@ -6155,7 +6250,7 @@
       </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="23" spans="3:10" ht="18.75">
+    <row r="23" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
         <v>28</v>
       </c>
@@ -6190,14 +6285,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" style="6" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="8" customWidth="1"/>
@@ -6208,7 +6303,7 @@
     <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>63</v>
       </c>
@@ -6220,7 +6315,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -6228,7 +6323,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -6236,12 +6331,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -6254,7 +6349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6262,7 +6357,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.875" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="8"/>
@@ -6276,8 +6371,8 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="11.25" customHeight="1"/>
-    <row r="2" spans="2:9">
+    <row r="1" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -6300,7 +6395,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="9">
         <f t="shared" ref="B3:B33" si="0">ROW()-2</f>
         <v>1</v>
@@ -6323,7 +6418,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6344,7 +6439,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6367,7 +6462,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6388,7 +6483,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6411,7 +6506,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6434,7 +6529,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6457,7 +6552,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6480,7 +6575,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6503,7 +6598,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6526,7 +6621,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6549,7 +6644,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6572,7 +6667,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6595,7 +6690,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6618,7 +6713,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6639,7 +6734,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6660,7 +6755,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6681,7 +6776,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6704,7 +6799,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6727,7 +6822,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6750,7 +6845,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6773,7 +6868,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6796,7 +6891,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6819,7 +6914,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6842,7 +6937,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6865,7 +6960,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6888,7 +6983,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6911,7 +7006,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6934,7 +7029,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6955,7 +7050,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6976,7 +7071,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7006,14 +7101,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="17.5" style="6" customWidth="1"/>
@@ -7027,7 +7122,7 @@
     <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>92</v>
       </c>
@@ -7044,7 +7139,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>84</v>
       </c>
@@ -7058,7 +7153,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>29</v>
       </c>
@@ -7078,7 +7173,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>85</v>
       </c>
@@ -7098,7 +7193,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>88</v>
       </c>
@@ -7112,7 +7207,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>86</v>
       </c>
@@ -7126,7 +7221,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>115</v>
       </c>
@@ -7140,7 +7235,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>87</v>
       </c>
@@ -7154,7 +7249,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="s">
         <v>93</v>
       </c>
@@ -7164,7 +7259,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>94</v>
       </c>
@@ -7175,7 +7270,7 @@
         <v>42083</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>95</v>
       </c>
@@ -7186,7 +7281,7 @@
         <v>42090</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>97</v>
       </c>
@@ -7197,7 +7292,7 @@
         <v>42098</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>96</v>
       </c>

--- a/PROGRESS/Unit1CA.xlsx
+++ b/PROGRESS/Unit1CA.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="140">
   <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -598,6 +598,9 @@
   </si>
   <si>
     <t>ReportPanel</t>
+  </si>
+  <si>
+    <t>CheckInventoryPanel</t>
   </si>
 </sst>
 </file>
@@ -5097,8 +5100,8 @@
   <dimension ref="B1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5566,7 +5569,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>53</v>

--- a/PROGRESS/Unit1CA.xlsx
+++ b/PROGRESS/Unit1CA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -606,11 +606,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -903,13 +903,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -923,7 +923,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -931,10 +931,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -974,13 +974,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
+      <xdr:colOff>1028700</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:colOff>1047750</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -991,8 +991,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12087225" y="76200"/>
-          <a:ext cx="19050" cy="8829675"/>
+          <a:off x="12401550" y="76200"/>
+          <a:ext cx="19050" cy="9305925"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5096,15 +5096,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="2.875" style="6" customWidth="1"/>
     <col min="2" max="2" width="6.25" style="8" customWidth="1"/>
@@ -5119,8 +5119,8 @@
     <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="6" customHeight="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11">
       <c r="B3" s="9">
         <f t="shared" ref="B3:B39" si="0">ROW()-2</f>
         <v>1</v>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="H3" s="42"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11">
       <c r="B4" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5194,7 +5194,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="42"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11">
       <c r="B5" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="H5" s="42"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11">
       <c r="B6" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5236,7 +5236,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="42"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11">
       <c r="B7" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="H7" s="42"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11">
       <c r="B8" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="H8" s="42"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11">
       <c r="B9" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="H9" s="42"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11">
       <c r="B10" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="H10" s="42"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11">
       <c r="B11" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="H11" s="42"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11">
       <c r="B12" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="H12" s="42"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11">
       <c r="B13" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5390,7 +5390,7 @@
       </c>
       <c r="H13" s="42"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11">
       <c r="B14" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="H14" s="42"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11">
       <c r="B15" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="H15" s="42"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11">
       <c r="B16" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5461,7 +5461,7 @@
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8">
       <c r="B17" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5481,7 +5481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5501,7 +5501,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="44"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5521,7 +5521,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="44"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5541,7 +5541,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="44"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="H21" s="44"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="H22" s="44"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="H23" s="44"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="H24" s="44"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="H25" s="44"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="H26" s="44"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="H27" s="44"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="H30" s="44"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8">
       <c r="B31" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="H31" s="44"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8">
       <c r="B32" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5805,7 +5805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11">
       <c r="B33" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5825,7 +5825,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="44"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11">
       <c r="B34" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5845,7 +5845,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="44"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11">
       <c r="B35" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5868,7 +5868,7 @@
       <c r="J35" s="37"/>
       <c r="K35" s="37"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11">
       <c r="B36" s="33">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5886,7 +5886,7 @@
       <c r="G36" s="31"/>
       <c r="H36" s="45"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11">
       <c r="B37" s="33">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5904,7 +5904,7 @@
       <c r="G37" s="31"/>
       <c r="H37" s="45"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11">
       <c r="B38" s="33">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5922,7 +5922,7 @@
       <c r="G38" s="31"/>
       <c r="H38" s="45"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11">
       <c r="B39" s="33">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5951,14 +5951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5967,14 +5967,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
@@ -5986,12 +5986,12 @@
     <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="18.75">
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="18.75">
       <c r="C7" s="1" t="s">
         <v>131</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="18.75">
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="18.75">
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="18.75">
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
@@ -6103,7 +6103,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="18.75">
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
@@ -6117,7 +6117,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="18.75">
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
@@ -6133,7 +6133,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="18.75">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="18.75">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -6163,7 +6163,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="18.75">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -6179,7 +6179,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="18.75">
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -6191,7 +6191,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10" ht="18.75">
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
@@ -6205,7 +6205,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:10" ht="18.75">
       <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
@@ -6221,7 +6221,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:10" ht="18.75">
       <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:10" ht="18.75">
       <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="23" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:10" ht="18.75">
       <c r="C23" s="4" t="s">
         <v>28</v>
       </c>
@@ -6288,14 +6288,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.25" style="6" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="8" customWidth="1"/>
@@ -6306,7 +6306,7 @@
     <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>63</v>
       </c>
@@ -6318,7 +6318,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -6334,12 +6334,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7">
       <c r="B5" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -6352,7 +6352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6360,7 +6360,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="2.875" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="8"/>
@@ -6374,8 +6374,8 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9">
       <c r="B3" s="9">
         <f t="shared" ref="B3:B33" si="0">ROW()-2</f>
         <v>1</v>
@@ -6421,7 +6421,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9">
       <c r="B4" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6442,7 +6442,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9">
       <c r="B5" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6465,7 +6465,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9">
       <c r="B6" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6486,7 +6486,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9">
       <c r="B7" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6509,7 +6509,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9">
       <c r="B8" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6532,7 +6532,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9">
       <c r="B9" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6555,7 +6555,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9">
       <c r="B10" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6578,7 +6578,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9">
       <c r="B11" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6601,7 +6601,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9">
       <c r="B12" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6624,7 +6624,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9">
       <c r="B13" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6647,7 +6647,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9">
       <c r="B14" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6670,7 +6670,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9">
       <c r="B15" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6693,7 +6693,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9">
       <c r="B16" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6716,7 +6716,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9">
       <c r="B17" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6737,7 +6737,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6758,7 +6758,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6779,7 +6779,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6802,7 +6802,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6825,7 +6825,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6848,7 +6848,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6871,7 +6871,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6894,7 +6894,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6917,7 +6917,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6940,7 +6940,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6963,7 +6963,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6986,7 +6986,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7009,7 +7009,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7032,7 +7032,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9">
       <c r="B31" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7053,7 +7053,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9">
       <c r="B32" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7074,7 +7074,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9">
       <c r="B33" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7104,14 +7104,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="17.5" style="6" customWidth="1"/>
@@ -7125,7 +7125,7 @@
     <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10">
       <c r="B3" s="19" t="s">
         <v>92</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10">
       <c r="B4" s="6" t="s">
         <v>84</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10">
       <c r="B5" s="6" t="s">
         <v>29</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10">
       <c r="B6" s="6" t="s">
         <v>85</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10">
       <c r="B7" s="6" t="s">
         <v>88</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10">
       <c r="B8" s="6" t="s">
         <v>86</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10">
       <c r="B9" s="6" t="s">
         <v>115</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10">
       <c r="B10" s="6" t="s">
         <v>87</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7">
       <c r="B18" s="19" t="s">
         <v>93</v>
       </c>
@@ -7262,7 +7262,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7">
       <c r="B19" s="6" t="s">
         <v>94</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>42083</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="6" t="s">
         <v>95</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>42090</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="6" t="s">
         <v>97</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>42098</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7">
       <c r="B22" s="6" t="s">
         <v>96</v>
       </c>

--- a/PROGRESS/Unit1CA.xlsx
+++ b/PROGRESS/Unit1CA.xlsx
@@ -7,16 +7,18 @@
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
-    <sheet name="Progress_20150315" sheetId="8" r:id="rId1"/>
+    <sheet name="Progress" sheetId="8" r:id="rId1"/>
     <sheet name="ScreenTransition" sheetId="4" r:id="rId2"/>
     <sheet name="CRUD" sheetId="1" r:id="rId3"/>
     <sheet name="Assumption" sheetId="7" r:id="rId4"/>
-    <sheet name="coding WBS" sheetId="6" r:id="rId5"/>
+    <sheet name="coding WBS" sheetId="6" state="hidden" r:id="rId5"/>
     <sheet name="Overall" sheetId="5" r:id="rId6"/>
+    <sheet name="ApplicationArchitecture" sheetId="9" r:id="rId7"/>
+    <sheet name="GUI Implement Approach" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'coding WBS'!$B$2:$I$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Progress_20150315!$B$2:$H$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Progress!$B$2:$H$39</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -874,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -955,6 +957,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -974,13 +977,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:colOff>1409700</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:colOff>1428750</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -991,7 +994,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12401550" y="76200"/>
+          <a:off x="12782550" y="76200"/>
           <a:ext cx="19050" cy="9305925"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4777,6 +4780,1673 @@
             <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676276" y="133350"/>
+          <a:ext cx="3429000" cy="6591300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>View</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="180975"/>
+          <a:ext cx="2333625" cy="6515100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Controller</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6677024" y="180975"/>
+          <a:ext cx="4610101" cy="6496050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>domain</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> model</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11706224" y="171450"/>
+          <a:ext cx="1876425" cy="6505575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> file</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="棱台 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="5114924"/>
+          <a:ext cx="1838325" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>XxxDialog</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(extends Dialog)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="棱台 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="676275"/>
+          <a:ext cx="2419350" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>MainFrame</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> (extends JFrame)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="棱台 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247774" y="3000375"/>
+          <a:ext cx="2124075" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>XxxListPanel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(extends JPanel)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="下箭头 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="4371975"/>
+          <a:ext cx="228600" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466975" y="4572000"/>
+          <a:ext cx="923925" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>POPUP</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2447925" y="2533650"/>
+          <a:ext cx="923925" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>contains</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="下箭头 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="2324100"/>
+          <a:ext cx="228600" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="圆角矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="2524125"/>
+          <a:ext cx="1800225" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>StoreApplication</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="0"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524250" y="1543050"/>
+          <a:ext cx="1285875" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3371849" y="3676650"/>
+          <a:ext cx="1438276" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="0"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3238500" y="3676650"/>
+          <a:ext cx="1571625" cy="2109787"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="圆角矩形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="3133725"/>
+          <a:ext cx="1190625" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Store</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="圆角矩形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8629650" y="2171700"/>
+          <a:ext cx="1095375" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>XxxMgr</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="圆角矩形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9372600" y="3505200"/>
+          <a:ext cx="1095375" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(Entity)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="圆角矩形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10067925" y="2171700"/>
+          <a:ext cx="1095375" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>XxxDao</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="流程图: 文档 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12039600" y="2143125"/>
+          <a:ext cx="1285875" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Xxxs.dat</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接箭头连接符 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="3676650"/>
+          <a:ext cx="800100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接箭头连接符 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8124825" y="2586038"/>
+          <a:ext cx="504825" cy="1090612"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接箭头连接符 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9725025" y="2586038"/>
+          <a:ext cx="342900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直接箭头连接符 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="3"/>
+          <a:endCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11163300" y="2576513"/>
+          <a:ext cx="876300" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直接箭头连接符 49"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="2"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9177338" y="3000375"/>
+          <a:ext cx="742950" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="下箭头 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5038725" y="1381125"/>
+          <a:ext cx="476250" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="TextBox 51"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="1543050"/>
+          <a:ext cx="923925" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Entry</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> from here</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Main()</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5090,6 +6760,30 @@
         </a:fontRef>
       </a:style>
     </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:ln w="28575">
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
@@ -5100,8 +6794,8 @@
   <dimension ref="B1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5941,7 +7635,7 @@
       <c r="H39" s="45"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H35"/>
+  <autoFilter ref="B2:H39"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5971,7 +7665,7 @@
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6292,7 +7986,7 @@
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7108,7 +8802,7 @@
   <dimension ref="B3:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7308,4 +9002,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="2.75" style="48" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="48"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <oleObjects>
+    <oleObject progId="Visio.Drawing.11" shapeId="3073" r:id="rId2"/>
+  </oleObjects>
+</worksheet>
 </file>
--- a/PROGRESS/Unit1CA.xlsx
+++ b/PROGRESS/Unit1CA.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8370" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="GUI Implement Approach" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'coding WBS'!$B$2:$I$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Progress!$B$2:$H$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'coding WBS'!$B$2:$I$33</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -39,7 +39,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">60 - implement entity &amp; Mgr
+          <t>60 - implement entity &amp; Mgr
 70 - implement Dao
 85 - finish Unit Test
 100 - finish peer review</t>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="126">
   <si>
     <t>No.</t>
   </si>
@@ -435,14 +435,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -453,23 +449,53 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="9"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -689,23 +715,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -725,11 +736,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,18 +748,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,7 +772,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -773,7 +784,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -787,35 +798,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1113,6 +1101,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1155,13 +1144,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -1180,7 +1167,7 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="6" customHeight="1"/>
+    <row r="1" spans="2:11" ht="6" customHeight="1"/>
     <row r="2" spans="2:11">
       <c r="B2" s="14" t="s">
         <v>0</v>
@@ -1213,9 +1200,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:11">
       <c r="B3" s="16">
-        <f t="shared" ref="B3:B39" si="0">ROW()-2</f>
+        <f t="shared" ref="B3" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -1235,9 +1222,9 @@
       </c>
       <c r="H3" s="34"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:11">
       <c r="B4" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" ref="B4:B39" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -1255,9 +1242,9 @@
       <c r="G4" s="17"/>
       <c r="H4" s="34"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:11">
       <c r="B5" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -1277,9 +1264,9 @@
       </c>
       <c r="H5" s="34"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:11">
       <c r="B6" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -1297,9 +1284,9 @@
       <c r="G6" s="17"/>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:11">
       <c r="B7" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -1321,9 +1308,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:11">
       <c r="B8" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -1345,9 +1332,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:11">
       <c r="B9" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -1367,9 +1354,9 @@
       </c>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:11">
       <c r="B10" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -1389,9 +1376,9 @@
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:11">
       <c r="B11" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -1411,9 +1398,9 @@
       </c>
       <c r="H11" s="34"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:11">
       <c r="B12" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -1433,9 +1420,9 @@
       </c>
       <c r="H12" s="34"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:11">
       <c r="B13" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -1455,9 +1442,9 @@
       </c>
       <c r="H13" s="34"/>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:11">
       <c r="B14" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -1477,9 +1464,9 @@
       </c>
       <c r="H14" s="34"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:11">
       <c r="B15" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -1501,7 +1488,7 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -1528,7 +1515,7 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="37">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C17" s="38" t="s">
@@ -1548,7 +1535,7 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -1568,7 +1555,7 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C19" s="25" t="s">
@@ -1588,7 +1575,7 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C20" s="25" t="s">
@@ -1608,7 +1595,7 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -1632,7 +1619,7 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C22" s="25" t="s">
@@ -1654,7 +1641,7 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C23" s="25" t="s">
@@ -1676,7 +1663,7 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -1698,7 +1685,7 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C25" s="25" t="s">
@@ -1720,7 +1707,7 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C26" s="25" t="s">
@@ -1742,7 +1729,7 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C27" s="25" t="s">
@@ -1764,7 +1751,7 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -1786,7 +1773,7 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C29" s="25" t="s">
@@ -1808,7 +1795,7 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -1830,7 +1817,7 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -1852,7 +1839,7 @@
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C32" s="25" t="s">
@@ -1872,9 +1859,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:11">
       <c r="B33" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C33" s="25" t="s">
@@ -1892,9 +1879,9 @@
       <c r="G33" s="25"/>
       <c r="H33" s="41"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:11">
       <c r="B34" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C34" s="25" t="s">
@@ -1914,7 +1901,7 @@
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="C35" s="25" t="s">
@@ -1935,9 +1922,9 @@
       <c r="J35" s="44"/>
       <c r="K35" s="44"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:11">
       <c r="B36" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -1953,9 +1940,9 @@
       <c r="G36" s="17"/>
       <c r="H36" s="42"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:11">
       <c r="B37" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C37" s="17" t="s">
@@ -1971,9 +1958,9 @@
       <c r="G37" s="17"/>
       <c r="H37" s="42"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:11">
       <c r="B38" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -1989,9 +1976,9 @@
       <c r="G38" s="17"/>
       <c r="H38" s="42"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:11">
       <c r="B39" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -2009,17 +1996,15 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:H39"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2028,17 +2013,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2057,12 +2040,12 @@
     <col min="10" max="10" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" ht="18.75" spans="3:10">
+    <row r="6" spans="2:10" ht="18.75">
       <c r="C6" s="14" t="s">
         <v>70</v>
       </c>
@@ -2088,7 +2071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="18.75" spans="3:10">
+    <row r="7" spans="2:10" ht="18.75">
       <c r="C7" s="27" t="s">
         <v>74</v>
       </c>
@@ -2114,7 +2097,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" ht="18.75" spans="3:10">
+    <row r="8" spans="2:10" ht="18.75">
       <c r="C8" s="27" t="s">
         <v>76</v>
       </c>
@@ -2140,7 +2123,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" ht="18.75" spans="3:10">
+    <row r="9" spans="2:10" ht="18.75">
       <c r="C9" s="27" t="s">
         <v>78</v>
       </c>
@@ -2154,7 +2137,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" ht="18.75" spans="3:10">
+    <row r="10" spans="2:10" ht="18.75">
       <c r="C10" s="27" t="s">
         <v>79</v>
       </c>
@@ -2174,7 +2157,7 @@
       </c>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" ht="18.75" spans="3:10">
+    <row r="11" spans="2:10" ht="18.75">
       <c r="C11" s="27" t="s">
         <v>81</v>
       </c>
@@ -2188,7 +2171,7 @@
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" ht="18.75" spans="3:10">
+    <row r="12" spans="2:10" ht="18.75">
       <c r="C12" s="27" t="s">
         <v>82</v>
       </c>
@@ -2204,7 +2187,7 @@
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" ht="18.75" spans="3:10">
+    <row r="13" spans="2:10" ht="18.75">
       <c r="C13" s="27" t="s">
         <v>84</v>
       </c>
@@ -2218,7 +2201,7 @@
       </c>
       <c r="J13" s="28"/>
     </row>
-    <row r="14" ht="18.75" spans="3:10">
+    <row r="14" spans="2:10" ht="18.75">
       <c r="C14" s="27" t="s">
         <v>85</v>
       </c>
@@ -2234,7 +2217,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
     </row>
-    <row r="15" ht="18.75" spans="3:10">
+    <row r="15" spans="2:10" ht="18.75">
       <c r="C15" s="27" t="s">
         <v>86</v>
       </c>
@@ -2250,7 +2233,7 @@
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
     </row>
-    <row r="16" ht="18.75" spans="3:10">
+    <row r="16" spans="2:10" ht="18.75">
       <c r="C16" s="27" t="s">
         <v>88</v>
       </c>
@@ -2262,7 +2245,7 @@
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
     </row>
-    <row r="17" ht="18.75" spans="3:10">
+    <row r="17" spans="3:10" ht="18.75">
       <c r="C17" s="27" t="s">
         <v>89</v>
       </c>
@@ -2276,7 +2259,7 @@
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
     </row>
-    <row r="18" ht="18.75" spans="3:10">
+    <row r="18" spans="3:10" ht="18.75">
       <c r="C18" s="27" t="s">
         <v>90</v>
       </c>
@@ -2292,7 +2275,7 @@
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
     </row>
-    <row r="19" ht="18.75" spans="3:10">
+    <row r="19" spans="3:10" ht="18.75">
       <c r="C19" s="27" t="s">
         <v>91</v>
       </c>
@@ -2310,7 +2293,7 @@
       </c>
       <c r="J19" s="28"/>
     </row>
-    <row r="20" ht="18.75" spans="3:10">
+    <row r="20" spans="3:10" ht="18.75">
       <c r="C20" s="27" t="s">
         <v>92</v>
       </c>
@@ -2324,7 +2307,7 @@
       </c>
       <c r="J20" s="28"/>
     </row>
-    <row r="23" ht="18.75" spans="3:10">
+    <row r="23" spans="3:10" ht="18.75">
       <c r="C23" s="29" t="s">
         <v>93</v>
       </c>
@@ -2351,24 +2334,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="12" customWidth="1"/>
@@ -2391,7 +2372,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:7">
       <c r="B3" s="12">
         <v>1</v>
       </c>
@@ -2399,7 +2380,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:7">
       <c r="B4" s="12">
         <v>2</v>
       </c>
@@ -2407,31 +2388,29 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:7">
       <c r="B5" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:7">
       <c r="B6" s="12">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2449,8 +2428,8 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="11.25" customHeight="1"/>
-    <row r="2" spans="2:8">
+    <row r="1" spans="2:9" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:9">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -2475,7 +2454,7 @@
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="16">
-        <f t="shared" ref="B3:B33" si="0">ROW()-2</f>
+        <f t="shared" ref="B3" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -2498,7 +2477,7 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" ref="B4:B33" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -2519,7 +2498,7 @@
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -2542,7 +2521,7 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -2563,7 +2542,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -2586,7 +2565,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -2609,7 +2588,7 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -2632,7 +2611,7 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -2655,7 +2634,7 @@
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -2678,7 +2657,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -2701,7 +2680,7 @@
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -2724,7 +2703,7 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -2747,7 +2726,7 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -2770,7 +2749,7 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="16">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -2793,7 +2772,7 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="21">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C17" s="22" t="s">
@@ -2814,7 +2793,7 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -2835,7 +2814,7 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C19" s="25" t="s">
@@ -2856,7 +2835,7 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C20" s="25" t="s">
@@ -2879,7 +2858,7 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -2902,7 +2881,7 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C22" s="25" t="s">
@@ -2925,7 +2904,7 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C23" s="25" t="s">
@@ -2948,7 +2927,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -2971,7 +2950,7 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C25" s="25" t="s">
@@ -2994,7 +2973,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C26" s="25" t="s">
@@ -3017,7 +2996,7 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C27" s="25" t="s">
@@ -3040,7 +3019,7 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -3063,7 +3042,7 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C29" s="25" t="s">
@@ -3086,7 +3065,7 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -3109,7 +3088,7 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -3130,7 +3109,7 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C32" s="25" t="s">
@@ -3151,7 +3130,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C33" s="25" t="s">
@@ -3172,15 +3151,14 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:I33"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3371,7 +3349,7 @@
         <v>42098</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:7">
       <c r="B22" s="2" t="s">
         <v>125</v>
       </c>
@@ -3380,19 +3358,18 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3401,17 +3378,15 @@
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3420,13 +3395,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <oleObjects>
-    <oleObject shapeId="11265" progId="Visio.Drawing.11" r:id="rId3"/>
+    <oleObject progId="Visio.Drawing.11" shapeId="11265" r:id="rId2"/>
   </oleObjects>
 </worksheet>
 </file>
--- a/PROGRESS/Unit1CA.xlsx
+++ b/PROGRESS/Unit1CA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8370" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="96">
   <si>
     <t>No.</t>
   </si>
@@ -332,6 +332,10 @@
   </si>
   <si>
     <t>StoreWindow</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1012,9 +1016,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1085,7 +1089,9 @@
       <c r="G3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="29">
+        <v>70</v>
+      </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="15">
@@ -1105,7 +1111,9 @@
         <v>42083</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="29"/>
+      <c r="H4" s="29">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="15">
@@ -1127,7 +1135,9 @@
       <c r="G5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="29"/>
+      <c r="H5" s="29">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="15">
@@ -1147,7 +1157,9 @@
         <v>42083</v>
       </c>
       <c r="G6" s="16"/>
-      <c r="H6" s="29"/>
+      <c r="H6" s="29">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="15">
@@ -1170,7 +1182,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="29">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -1194,7 +1206,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="29">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -1217,7 +1229,9 @@
       <c r="G9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="29"/>
+      <c r="H9" s="29">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="15">
@@ -1239,7 +1253,9 @@
       <c r="G10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="29"/>
+      <c r="H10" s="29">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="15">
@@ -1261,7 +1277,9 @@
       <c r="G11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="29"/>
+      <c r="H11" s="29">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="15">
@@ -1283,7 +1301,9 @@
       <c r="G12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="29"/>
+      <c r="H12" s="29">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="15">
@@ -1305,7 +1325,9 @@
       <c r="G13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="29"/>
+      <c r="H13" s="29">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="15">
@@ -1327,7 +1349,9 @@
       <c r="G14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="29"/>
+      <c r="H14" s="29">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="15">
@@ -1349,7 +1373,9 @@
       <c r="G15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="29"/>
+      <c r="H15" s="29">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="15">
@@ -1372,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="29">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
@@ -1395,7 +1421,7 @@
       <c r="F17" s="34"/>
       <c r="G17" s="33"/>
       <c r="H17" s="35">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -1416,7 +1442,9 @@
         <v>42090</v>
       </c>
       <c r="G18" s="24"/>
-      <c r="H18" s="36"/>
+      <c r="H18" s="36">
+        <v>70</v>
+      </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="23">
@@ -1436,7 +1464,9 @@
         <v>42090</v>
       </c>
       <c r="G19" s="24"/>
-      <c r="H19" s="36"/>
+      <c r="H19" s="36">
+        <v>90</v>
+      </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="23">
@@ -1450,13 +1480,15 @@
         <v>37</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F20" s="25">
         <v>42090</v>
       </c>
       <c r="G20" s="24"/>
-      <c r="H20" s="36"/>
+      <c r="H20" s="36">
+        <v>70</v>
+      </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="23">
@@ -1568,7 +1600,9 @@
       <c r="G25" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="36"/>
+      <c r="H25" s="36">
+        <v>70</v>
+      </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="23">
@@ -1590,7 +1624,9 @@
       <c r="G26" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="36"/>
+      <c r="H26" s="36">
+        <v>70</v>
+      </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="23">
@@ -1721,7 +1757,7 @@
       </c>
       <c r="G32" s="24"/>
       <c r="H32" s="36">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -1782,7 +1818,9 @@
         <v>42090</v>
       </c>
       <c r="G35" s="24"/>
-      <c r="H35" s="36"/>
+      <c r="H35" s="36" t="s">
+        <v>95</v>
+      </c>
       <c r="I35" s="40"/>
       <c r="J35" s="39"/>
       <c r="K35" s="39"/>
@@ -1851,13 +1889,15 @@
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="17" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F39" s="18">
         <v>42098</v>
       </c>
       <c r="G39" s="16"/>
-      <c r="H39" s="37"/>
+      <c r="H39" s="37">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:H39"/>
@@ -2641,7 +2681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>

--- a/PROGRESS/Unit1CA.xlsx
+++ b/PROGRESS/Unit1CA.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'coding WBS'!$B$2:$I$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Progress!$B$2:$H$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Progress!$B$2:$H$40</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="97">
   <si>
     <t>No.</t>
   </si>
@@ -336,6 +336,10 @@
   </si>
   <si>
     <t>cancel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalcUtil</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -673,6 +677,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1819275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1073" name="流程图: 过程 37"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13201650" y="7219950"/>
+          <a:ext cx="1819275" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FFD1BB"/>
+            </a:gs>
+            <a:gs pos="35001">
+              <a:srgbClr val="FFDDCF"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFF2ED"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="F5913F"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1014,11 +1084,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K39"/>
+  <dimension ref="B1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1095,7 +1165,7 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="15">
-        <f t="shared" ref="B4:B39" si="1">ROW()-2</f>
+        <f t="shared" ref="B4:B40" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -1744,20 +1814,20 @@
         <v>30</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>57</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F32" s="25">
         <v>42090</v>
       </c>
       <c r="G32" s="24"/>
       <c r="H32" s="36">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -1766,19 +1836,21 @@
         <v>31</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="17" t="s">
         <v>34</v>
       </c>
       <c r="F33" s="25">
         <v>42090</v>
       </c>
       <c r="G33" s="24"/>
-      <c r="H33" s="36"/>
+      <c r="H33" s="36">
+        <v>60</v>
+      </c>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="23">
@@ -1786,13 +1858,13 @@
         <v>32</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>29</v>
+      <c r="E34" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="F34" s="25">
         <v>42090</v>
@@ -1806,7 +1878,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>57</v>
@@ -1818,30 +1890,32 @@
         <v>42090</v>
       </c>
       <c r="G35" s="24"/>
-      <c r="H35" s="36" t="s">
+      <c r="H35" s="36"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="23">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="25">
+        <v>42090</v>
+      </c>
+      <c r="G36" s="24"/>
+      <c r="H36" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="I35" s="40"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="15">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="18">
-        <v>42098</v>
-      </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="37"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="15">
@@ -1849,7 +1923,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="17" t="s">
@@ -1867,7 +1941,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="17" t="s">
@@ -1885,26 +1959,45 @@
         <v>37</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="17" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F39" s="18">
         <v>42098</v>
       </c>
       <c r="G39" s="16"/>
-      <c r="H39" s="37">
+      <c r="H39" s="37"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="15">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="18">
+        <v>42098</v>
+      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="37">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H39"/>
+  <autoFilter ref="B2:H40"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/PROGRESS/Unit1CA.xlsx
+++ b/PROGRESS/Unit1CA.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="99">
   <si>
     <t>No.</t>
   </si>
@@ -340,6 +340,14 @@
   </si>
   <si>
     <t>CalcUtil</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>VendorDialog</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +358,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -391,8 +399,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +483,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,7 +623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -670,6 +691,17 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="7" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1087,8 +1119,8 @@
   <dimension ref="B1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1182,7 +1214,7 @@
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="29">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -1206,7 +1238,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="29">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -1228,7 +1260,7 @@
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="29">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -1252,7 +1284,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="29">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -1276,7 +1308,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="29">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -1420,7 +1452,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="29">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -1444,7 +1476,7 @@
         <v>21</v>
       </c>
       <c r="H15" s="29">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -1604,7 +1636,9 @@
       <c r="G22" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="36"/>
+      <c r="H22" s="36">
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="23">
@@ -1626,7 +1660,9 @@
       <c r="G23" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="36"/>
+      <c r="H23" s="36">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="23">
@@ -1648,7 +1684,9 @@
       <c r="G24" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="36"/>
+      <c r="H24" s="36">
+        <v>70</v>
+      </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="23">
@@ -1718,29 +1756,33 @@
       <c r="G27" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="36"/>
+      <c r="H27" s="36">
+        <v>70</v>
+      </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="23">
+      <c r="B28" s="41">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="43">
         <v>42090</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="36"/>
+      <c r="H28" s="44" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="23">
@@ -1748,7 +1790,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>37</v>
@@ -1762,7 +1804,9 @@
       <c r="G29" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="36"/>
+      <c r="H29" s="36">
+        <v>70</v>
+      </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="23">
@@ -1893,25 +1937,25 @@
       <c r="H35" s="36"/>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="23">
+      <c r="B36" s="41">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="43">
         <v>42090</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="36" t="s">
-        <v>95</v>
+      <c r="G36" s="42"/>
+      <c r="H36" s="45" t="s">
+        <v>97</v>
       </c>
       <c r="I36" s="40"/>
       <c r="J36" s="39"/>

--- a/PROGRESS/Unit1CA.xlsx
+++ b/PROGRESS/Unit1CA.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="100">
   <si>
     <t>No.</t>
   </si>
@@ -348,6 +348,10 @@
   </si>
   <si>
     <t>VendorDialog</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mgr,Dao,TestCase</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1119,8 +1123,8 @@
   <dimension ref="B1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1377,7 +1381,7 @@
         <v>42083</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="H11" s="29">
         <v>70</v>
@@ -1404,7 +1408,7 @@
         <v>21</v>
       </c>
       <c r="H12" s="29">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -1828,7 +1832,9 @@
       <c r="G30" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="36"/>
+      <c r="H30" s="36">
+        <v>100</v>
+      </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="23">
@@ -1850,7 +1856,9 @@
       <c r="G31" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="36"/>
+      <c r="H31" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="23">
@@ -1914,7 +1922,9 @@
         <v>42090</v>
       </c>
       <c r="G34" s="24"/>
-      <c r="H34" s="36"/>
+      <c r="H34" s="36">
+        <v>100</v>
+      </c>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="23">
@@ -1927,14 +1937,16 @@
       <c r="D35" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>29</v>
+      <c r="E35" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="F35" s="25">
         <v>42090</v>
       </c>
       <c r="G35" s="24"/>
-      <c r="H35" s="36"/>
+      <c r="H35" s="36">
+        <v>100</v>
+      </c>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="41">
@@ -1977,7 +1989,9 @@
         <v>42098</v>
       </c>
       <c r="G37" s="16"/>
-      <c r="H37" s="37"/>
+      <c r="H37" s="37">
+        <v>60</v>
+      </c>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="15">
@@ -1995,7 +2009,9 @@
         <v>42098</v>
       </c>
       <c r="G38" s="16"/>
-      <c r="H38" s="37"/>
+      <c r="H38" s="37">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="15">
@@ -2013,7 +2029,9 @@
         <v>42098</v>
       </c>
       <c r="G39" s="16"/>
-      <c r="H39" s="37"/>
+      <c r="H39" s="37">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="15">

--- a/PROGRESS/Unit1CA.xlsx
+++ b/PROGRESS/Unit1CA.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'coding WBS'!$B$2:$I$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Progress!$B$2:$H$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Progress!$B$2:$H$41</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="101">
   <si>
     <t>No.</t>
   </si>
@@ -352,6 +352,10 @@
   </si>
   <si>
     <t>Mgr,Dao,TestCase</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preparing data</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1120,11 +1124,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K40"/>
+  <dimension ref="B1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1196,12 +1200,12 @@
         <v>13</v>
       </c>
       <c r="H3" s="29">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="15">
-        <f t="shared" ref="B4:B40" si="1">ROW()-2</f>
+        <f t="shared" ref="B4:B41" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -1218,7 +1222,7 @@
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="29">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -1242,7 +1246,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="29">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -1264,7 +1268,7 @@
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="29">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -1288,7 +1292,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="29">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -1312,7 +1316,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="29">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -1336,7 +1340,7 @@
         <v>13</v>
       </c>
       <c r="H9" s="29">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -1360,7 +1364,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="29">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -1384,7 +1388,7 @@
         <v>99</v>
       </c>
       <c r="H11" s="29">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -1404,11 +1408,9 @@
       <c r="F12" s="18">
         <v>42083</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="G12" s="16"/>
       <c r="H12" s="29">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -1432,7 +1434,7 @@
         <v>30</v>
       </c>
       <c r="H13" s="29">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -1456,7 +1458,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="29">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -1480,7 +1482,7 @@
         <v>21</v>
       </c>
       <c r="H15" s="29">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -1504,7 +1506,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="29">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
@@ -1527,7 +1529,7 @@
       <c r="F17" s="34"/>
       <c r="G17" s="33"/>
       <c r="H17" s="35">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -1549,7 +1551,7 @@
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="36">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -1571,7 +1573,7 @@
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="36">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -1593,7 +1595,7 @@
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="36">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -1617,7 +1619,7 @@
         <v>41</v>
       </c>
       <c r="H21" s="36">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -1641,7 +1643,7 @@
         <v>43</v>
       </c>
       <c r="H22" s="36">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -1665,7 +1667,7 @@
         <v>46</v>
       </c>
       <c r="H23" s="36">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -1689,7 +1691,7 @@
         <v>48</v>
       </c>
       <c r="H24" s="36">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -1713,7 +1715,7 @@
         <v>46</v>
       </c>
       <c r="H25" s="36">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -1737,7 +1739,7 @@
         <v>48</v>
       </c>
       <c r="H26" s="36">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="2:8">
@@ -1761,7 +1763,7 @@
         <v>46</v>
       </c>
       <c r="H27" s="36">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -1809,7 +1811,7 @@
         <v>48</v>
       </c>
       <c r="H29" s="36">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -1857,7 +1859,7 @@
         <v>58</v>
       </c>
       <c r="H31" s="36">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -1901,7 +1903,7 @@
       </c>
       <c r="G33" s="24"/>
       <c r="H33" s="36">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="2:11">
@@ -1990,7 +1992,7 @@
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="37">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="2:11">
@@ -1999,18 +2001,18 @@
         <v>36</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="17" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F38" s="18">
         <v>42098</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="37">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:11">
@@ -2019,7 +2021,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="17" t="s">
@@ -2030,7 +2032,7 @@
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="37">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="2:11">
@@ -2039,11 +2041,11 @@
         <v>38</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="17" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F40" s="18">
         <v>42098</v>
@@ -2053,8 +2055,28 @@
         <v>100</v>
       </c>
     </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="15">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="18">
+        <v>42098</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="37">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:H40"/>
+  <autoFilter ref="B2:H41"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
